--- a/biology/Zoologie/Colombe_à_queue_noire/Colombe_à_queue_noire.xlsx
+++ b/biology/Zoologie/Colombe_à_queue_noire/Colombe_à_queue_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_queue_noire</t>
+          <t>Colombe_à_queue_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Columbina passerina
 La Colombe à queue noire (Columbina passerina), aussi Colombigalline à queue noire, Colombe cocotzin, ou Colombe moineau, est une espèce de petits oiseaux tropicaux du continent américain.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_queue_noire</t>
+          <t>Colombe_à_queue_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend sur le sud des États-Unis, le Mexique, l'Amérique centrale, les Caraïbes et le nord de l'Amérique du Sud.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_queue_noire</t>
+          <t>Colombe_à_queue_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombe à queue noire vit dans les milieux buissonneux et les paysages ouverts plutôt secs.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_queue_noire</t>
+          <t>Colombe_à_queue_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle construit un solide nid en branchage dans un arbre et y pond deux œufs blancs.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_queue_noire</t>
+          <t>Colombe_à_queue_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son vol est rapide et direct, avec des battements d’ailes réguliers et un battement plus rapide des ailes de temps en temps, une caractéristique des pigeons en général[réf. nécessaire].
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_queue_noire</t>
+          <t>Colombe_à_queue_noire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La colombe à queue noire est un des plus petits Columbidae du monde, avec 16 à 17 cm pour 31 g. Les oiseaux adultes ont un plumage gris-brun rosé, avec les primaires roussâtres et une tache noire sur chacune des ailes. Ils ont une apparence écailleuse au niveau de la poitrine et de la tête. La queue est brune au centre, avec des côtés noirs et des coins blancs. Le bec est orange avec l’extrémité noire.
 La femelle est un peu plus terne que le mâle.
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_queue_noire</t>
+          <t>Colombe_à_queue_noire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombe à queue noire se nourrit essentiellement de graines, mais mange également quelques insectes.
 </t>
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_queue_noire</t>
+          <t>Colombe_à_queue_noire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,7 +724,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 11.1, 2021) du Congrès ornithologique international, cette espèce est constituée des dix-huit sous-espèces suivantes (ordre phylogénique) :
 Columbina passerina passerina, (Linnaeus, 1758) ;
